--- a/Design Data/Updated/Sample Data/Sample data for entities.xlsx
+++ b/Design Data/Updated/Sample Data/Sample data for entities.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538106\Desktop\gdp_health_app\Design Data\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538096\Documents\COURSE\fall 2020\GDP1\gdp_health_app\Design Data\Updated\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4063EA-BEA4-49F4-A2F0-63AAED475EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="165">
   <si>
     <t>UserName</t>
   </si>
@@ -532,7 +531,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,23 +864,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -927,7 +926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -950,7 +949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -973,7 +972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -996,7 +995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1366,51 +1365,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="Robert@123" xr:uid="{3347211E-3829-4382-9239-B9B077165BC5}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{5228730F-885D-47A6-A7E0-A162BDCF5E55}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{B0A50E7C-7C9A-40F4-B015-13BAAA6D5A4E}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{7CAFCF24-F39C-4702-AEF1-E6B65ADA8339}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{52564640-A09D-4DD4-AA15-4E1F963A5A96}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{3D9B5D5C-A1FC-4813-8D10-E70CA7700712}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{4D04BDB0-949F-44F7-BC69-967026F8AA59}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{08BB6BF4-8B56-44A8-9301-832D411AB37C}"/>
-    <hyperlink ref="G9" r:id="rId9" xr:uid="{D5E080B8-77D8-4CD3-9FDC-4F1CFD4241B7}"/>
-    <hyperlink ref="G10" r:id="rId10" xr:uid="{053DE528-A767-4B40-A0C0-C703B91041E3}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{7757F34F-1B79-4337-A599-64B58367EABC}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{7126E6D9-7084-4FE4-8E48-B08E65A9AD19}"/>
-    <hyperlink ref="G13" r:id="rId13" xr:uid="{7D931926-1307-4412-B48E-C8D98464BC9F}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{2AF7EAA7-15D0-4B36-8ADD-8C76C2154699}"/>
-    <hyperlink ref="G15" r:id="rId15" xr:uid="{3278AA43-3DDC-498A-B05C-0E895FBD8A2A}"/>
-    <hyperlink ref="G16" r:id="rId16" xr:uid="{EE68A9A4-EA6F-48BB-9B03-3E505BDAA9C6}"/>
-    <hyperlink ref="G17" r:id="rId17" xr:uid="{77B8CE60-7DCB-45A3-8A98-801F7E1A7E3F}"/>
-    <hyperlink ref="G18" r:id="rId18" xr:uid="{B24B901E-893F-4984-A499-B0DFB18E098F}"/>
-    <hyperlink ref="G19" r:id="rId19" xr:uid="{A5CF0B6B-1442-4DD4-B5DB-DC3E4E384C5E}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{898A5BCA-0599-4270-B807-96AF27726815}"/>
-    <hyperlink ref="G21" r:id="rId21" xr:uid="{C8F1F872-9893-477C-B591-89861B47609D}"/>
+    <hyperlink ref="B4" r:id="rId1" display="Robert@123"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="G9" r:id="rId9"/>
+    <hyperlink ref="G10" r:id="rId10"/>
+    <hyperlink ref="G11" r:id="rId11"/>
+    <hyperlink ref="G12" r:id="rId12"/>
+    <hyperlink ref="G13" r:id="rId13"/>
+    <hyperlink ref="G14" r:id="rId14"/>
+    <hyperlink ref="G15" r:id="rId15"/>
+    <hyperlink ref="G16" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="G18" r:id="rId18"/>
+    <hyperlink ref="G19" r:id="rId19"/>
+    <hyperlink ref="G20" r:id="rId20"/>
+    <hyperlink ref="G21" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B5DDD-F88B-4D5E-A728-87E46A470DE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1650,7 +1649,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1670,7 +1669,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1837,22 +1836,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4E68C-0CA9-4C18-8847-54715EEB10BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>0.76113425925925926</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>0.63359953703703698</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>0.67899305555555556</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>0.59625000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>0.50706018518518514</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>0.42372685185185183</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>0.46609953703703705</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>0.50847222222222221</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>0.55084490740740744</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>0.59321759259259255</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>0.63559027777777777</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>0.67868055555555562</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>0.72105324074074073</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>0.76342592592592595</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>0.80579861111111117</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>0.84817129629629628</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>0.89054398148148151</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>0.93291666666666673</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>0.9758796296296296</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -2153,204 +2152,268 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493B3549-B49E-4EC2-836B-66FF9983BD48}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
         <v>44084</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>44085</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
         <v>44085</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>44086</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>44087</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
         <v>44086</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>44088</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>44083</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>44084</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
         <v>44086</v>
-      </c>
-      <c r="C6" s="3">
-        <v>44088</v>
       </c>
       <c r="D6" s="3">
         <v>44088</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
         <v>44088</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="3">
+        <v>44088</v>
+      </c>
+      <c r="C7" s="3">
         <v>44090</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
         <v>44082</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>44084</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
         <v>44083</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>44084</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
         <v>44084</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>44085</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
         <v>44085</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>44087</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
         <v>44086</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>44089</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>44094</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
         <v>44087</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>44091</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>44089</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="3">
         <v>44089</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>44083</v>
+      <c r="C14" s="3">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="3">
         <v>44083</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>44085</v>
+      <c r="C15" s="3">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="3">
         <v>44085</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="C16" s="3">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3">
         <v>44084</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>44084</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
         <v>44086</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>44087</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
         <v>44086</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>44087</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>44084</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="3">
         <v>44084</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="C20" s="3">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
         <v>44082</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>44083</v>
       </c>
     </row>
@@ -2361,21 +2424,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3FC752-2CCC-4ADA-BD93-3CC74B8D634B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2389,7 +2452,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -2400,7 +2463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -2414,7 +2477,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2426,7 +2489,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -2437,7 +2500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -2448,7 +2511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -2459,7 +2522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -2470,7 +2533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -2481,7 +2544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
@@ -2492,7 +2555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -2503,7 +2566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
@@ -2517,7 +2580,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2528,7 +2591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -2539,7 +2602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -2550,7 +2613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -2561,7 +2624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -2572,7 +2635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -2583,7 +2646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -2594,7 +2657,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -2605,7 +2668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2621,49 +2684,49 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3E500F6C-B005-4FD5-8341-0D4C4A577D27}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{BFB5CEBE-6EB3-4570-8965-2DCB8FB32D38}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{9EAAF5F8-91C6-4EF4-9859-4BF770C9F797}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{646DD1EC-D6F8-4A8F-87C9-A2B06877C90B}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{55B87998-C303-4D7D-BEAF-25AE81CF0C4B}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{CB1055F4-3CEB-4A08-B4E6-1E69BAA61ACA}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{D47F77C1-1A5C-45A4-B98C-D619872E4FBF}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{6B0A71EC-7E8F-4C35-94CE-98F93A7328FA}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{965153E3-7822-4672-9FA9-5ECB188BCE68}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{671C8B7F-CE8C-44B6-8639-C8DA1E203EF5}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{DCF8ED35-D9DD-4723-B47B-76E692EE915C}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{895E4CA8-8A92-4A57-86DF-EEBFADF626D0}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{69A3ABD1-BD14-45DA-A50D-D10F01D0F840}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{B2A18679-5418-45E7-BDDC-39DA803A3AE1}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{68833912-76FC-489C-81B9-A4CA3F3FBD65}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{BE93573C-0BF2-437C-9D44-3397269A53B8}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{E2ECD02D-96EC-439D-8E28-7832B9CBED1B}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{4F6E11E7-5BE1-47CB-BD9F-4B36DEA13662}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{F93FA330-E38A-4B94-8646-F15A6B2D8B55}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{84BFF350-6702-4C0F-84D4-9F8DBD1DE976}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BCB583-04A0-41CC-9CF1-170A1216D898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -2689,7 +2752,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2715,7 +2778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2741,7 +2804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2767,7 +2830,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2793,7 +2856,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2819,7 +2882,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2908,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2871,7 +2934,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2897,7 +2960,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2923,7 +2986,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2949,7 +3012,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2975,7 +3038,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3001,7 +3064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3027,7 +3090,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3053,7 +3116,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3079,7 +3142,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3105,7 +3168,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3131,7 +3194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3157,7 +3220,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3183,7 +3246,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3216,22 +3279,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416BFC41-9C5D-43DC-823F-34B7584A6B33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E21"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -3248,7 +3311,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1091</v>
       </c>
@@ -3265,9 +3328,9 @@
         <v>0.50706018518518514</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B3" t="s">
         <v>149</v>
@@ -3282,9 +3345,9 @@
         <v>0.42372685185185183</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B4" t="s">
         <v>150</v>
@@ -3299,9 +3362,9 @@
         <v>0.46609953703703705</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B5" t="s">
         <v>151</v>
@@ -3316,9 +3379,9 @@
         <v>0.50847222222222221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B6" t="s">
         <v>152</v>
@@ -3333,9 +3396,9 @@
         <v>0.55084490740740744</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B7" t="s">
         <v>153</v>
@@ -3350,9 +3413,9 @@
         <v>0.59321759259259255</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B8" t="s">
         <v>154</v>
@@ -3367,9 +3430,9 @@
         <v>0.63559027777777777</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B9" t="s">
         <v>155</v>
@@ -3384,9 +3447,9 @@
         <v>0.67868055555555562</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B10" t="s">
         <v>156</v>
@@ -3401,194 +3464,51 @@
         <v>0.72105324074074073</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1099</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3">
-        <v>44096</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.76342592592592595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
-        <v>44094</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.80579861111111117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1081</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
-        <v>44095</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.84817129629629628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1082</v>
-      </c>
-      <c r="B14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3">
-        <v>44097</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.89054398148148151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1083</v>
-      </c>
-      <c r="B15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3">
-        <v>44098</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.93291666666666673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1084</v>
-      </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3">
-        <v>44094</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.9758796296296296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1085</v>
-      </c>
-      <c r="B17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3">
-        <v>44094</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.6793865740740741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1086</v>
-      </c>
-      <c r="B18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3">
-        <v>44094</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.46609953703703705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1087</v>
-      </c>
-      <c r="B19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3">
-        <v>44095</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.50847222222222221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1089</v>
-      </c>
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3">
-        <v>44095</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.55084490740740744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1090</v>
-      </c>
-      <c r="B21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3">
-        <v>44096</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.59321759259259255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
     </row>
   </sheetData>
@@ -3598,22 +3518,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9F54AA-FF8F-4D91-92A7-2BA1F073E2C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
@@ -3627,7 +3547,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -3641,7 +3561,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -3655,7 +3575,7 @@
         <v>0.49733796296296301</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -3669,7 +3589,7 @@
         <v>0.42443287037037036</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -3683,7 +3603,7 @@
         <v>0.50847222222222221</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -3697,7 +3617,7 @@
         <v>0.55084490740740744</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -3711,201 +3631,61 @@
         <v>0.63488425925925929</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44097</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.63559027777777777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44096</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.67868055555555562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44094</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.72105324074074073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44096</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.76342592592592595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44095</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.80579861111111117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44096</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.84817129629629628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44097</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.89054398148148151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44098</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.93291666666666673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44095</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.9758796296296296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44094</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.6793865740740741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3">
-        <v>44096</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.46609953703703705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3">
-        <v>44094</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.50847222222222221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3">
-        <v>44095</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.55084490740740744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3">
-        <v>44097</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.59321759259259255</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design Data/Updated/Sample Data/Sample data for entities.xlsx
+++ b/Design Data/Updated/Sample Data/Sample data for entities.xlsx
@@ -9,18 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="USER" sheetId="1" r:id="rId1"/>
-    <sheet name="HOME" sheetId="2" r:id="rId2"/>
-    <sheet name="GROUP" sheetId="3" r:id="rId3"/>
-    <sheet name="GROUP MEMBER" sheetId="4" r:id="rId4"/>
-    <sheet name="RESET PASSWORD" sheetId="5" r:id="rId5"/>
-    <sheet name="PROFILE" sheetId="6" r:id="rId6"/>
-    <sheet name="ACTIVITY" sheetId="7" r:id="rId7"/>
-    <sheet name="CHALLENGE" sheetId="8" r:id="rId8"/>
+    <sheet name="HOME" sheetId="2" r:id="rId1"/>
+    <sheet name="GROUP" sheetId="3" r:id="rId2"/>
+    <sheet name="GROUP MEMBER" sheetId="4" r:id="rId3"/>
+    <sheet name="RESET PASSWORD" sheetId="5" r:id="rId4"/>
+    <sheet name="ACTIVITY" sheetId="7" r:id="rId5"/>
+    <sheet name="profile" sheetId="16" r:id="rId6"/>
+    <sheet name="CHALLENGE" sheetId="8" r:id="rId7"/>
+    <sheet name="USER" sheetId="1" r:id="rId8"/>
+    <sheet name="STEPCOUNT" sheetId="10" r:id="rId9"/>
+    <sheet name="SLEEPCOUNT" sheetId="11" r:id="rId10"/>
+    <sheet name="WATERCOUNT" sheetId="14" r:id="rId11"/>
+    <sheet name="MEDITATIONCOUNT" sheetId="15" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="ExternalData_1" localSheetId="8" hidden="1">STEPCOUNT!$A$1:$A$22</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,8 +37,16 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="MySQL.happyhealth_MySQL.STEPCOUNT" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
+    <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=35.194.21.170;Port=3306;Database=happyhealth_MySQL;User=root;Option=3;" command="SELECT * FROM happyhealth_MySQL.STEPCOUNT" commandType="4"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="178">
   <si>
     <t>UserName</t>
   </si>
@@ -39,12 +54,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>Social Profiles</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -117,9 +126,6 @@
     <t>Kenneth</t>
   </si>
   <si>
-    <t>JamesBond</t>
-  </si>
-  <si>
     <t>John234</t>
   </si>
   <si>
@@ -357,24 +363,15 @@
     <t>Kenneth231</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Height</t>
   </si>
   <si>
     <t>ActivityId</t>
   </si>
   <si>
-    <t>Medical Condition</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -384,90 +381,12 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Weigth(lbs)</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Better</t>
-  </si>
-  <si>
-    <t>Worst</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>Adequate</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>in order</t>
-  </si>
-  <si>
-    <t>Fine</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
-    <t>America</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Argentia</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>Activity Name</t>
   </si>
   <si>
@@ -526,6 +445,141 @@
   </si>
   <si>
     <t>13:11:10 PM</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>James234</t>
+  </si>
+  <si>
+    <t>Bond12345</t>
+  </si>
+  <si>
+    <t>harish24680</t>
+  </si>
+  <si>
+    <t>harish24680@gmail.com</t>
+  </si>
+  <si>
+    <t>Social_Profiles</t>
+  </si>
+  <si>
+    <t>Forgot_Password</t>
+  </si>
+  <si>
+    <t>11/07/2040</t>
+  </si>
+  <si>
+    <t>MeditationTime</t>
+  </si>
+  <si>
+    <t>SleepHoursCount</t>
+  </si>
+  <si>
+    <t>GlassCount</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>currentWeight</t>
+  </si>
+  <si>
+    <t>desriredWeight</t>
+  </si>
+  <si>
+    <t>averageActivityLevel</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Sedentary</t>
+  </si>
+  <si>
+    <t>Lightly Active</t>
+  </si>
+  <si>
+    <t>Moderatley Active</t>
+  </si>
+  <si>
+    <t>Very Active</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Telangan</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Tamilnadu</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>Nova Scotia</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
   </si>
 </sst>
 </file>
@@ -557,12 +611,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7D7D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -578,19 +638,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -600,6 +708,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="5" unboundColumnsRight="3">
+    <queryTableFields count="4">
+      <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="2"/>
+      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
+      <queryTableField id="2" dataBound="0" tableColumnId="4"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="happyhealth_MySQL.STEPCOUNT" displayName="happyhealth_MySQL.STEPCOUNT" comment="07137b1c-eeac-41dd-80cf-2014cf563692" ref="A1:D22" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D22"/>
+  <tableColumns count="4">
+    <tableColumn id="1" uniqueName="1" name="UserName" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" uniqueName="2" name="StepCount" queryTableFieldId="4"/>
+    <tableColumn id="3" uniqueName="3" name="Goal" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Date" queryTableFieldId="2" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -865,538 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="Robert@123"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="G8" r:id="rId8"/>
-    <hyperlink ref="G9" r:id="rId9"/>
-    <hyperlink ref="G10" r:id="rId10"/>
-    <hyperlink ref="G11" r:id="rId11"/>
-    <hyperlink ref="G12" r:id="rId12"/>
-    <hyperlink ref="G13" r:id="rId13"/>
-    <hyperlink ref="G14" r:id="rId14"/>
-    <hyperlink ref="G15" r:id="rId15"/>
-    <hyperlink ref="G16" r:id="rId16"/>
-    <hyperlink ref="G17" r:id="rId17"/>
-    <hyperlink ref="G18" r:id="rId18"/>
-    <hyperlink ref="G19" r:id="rId19"/>
-    <hyperlink ref="G20" r:id="rId20"/>
-    <hyperlink ref="G21" r:id="rId21"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,24 +1020,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>10467</v>
@@ -1451,7 +1057,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>16378</v>
@@ -1471,7 +1077,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>16733</v>
@@ -1491,7 +1097,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>13255</v>
@@ -1511,7 +1117,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>16722</v>
@@ -1531,7 +1137,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>10278</v>
@@ -1551,7 +1157,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>11722</v>
@@ -1571,7 +1177,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>16832</v>
@@ -1591,7 +1197,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>18928</v>
@@ -1611,7 +1217,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>19028</v>
@@ -1631,7 +1237,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>12563</v>
@@ -1651,7 +1257,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>17383</v>
@@ -1671,7 +1277,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>16738</v>
@@ -1691,7 +1297,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>13893</v>
@@ -1711,7 +1317,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>10273</v>
@@ -1731,7 +1337,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>15839</v>
@@ -1751,7 +1357,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>14278</v>
@@ -1771,7 +1377,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>10297</v>
@@ -1791,7 +1397,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>16382</v>
@@ -1811,7 +1417,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>9888</v>
@@ -1835,7 +1441,991 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -1853,24 +2443,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>44084</v>
@@ -1881,10 +2471,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>44085</v>
@@ -1895,10 +2485,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>44086</v>
@@ -1909,10 +2499,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>44083</v>
@@ -1923,10 +2513,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>44086</v>
@@ -1937,10 +2527,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>44088</v>
@@ -1951,10 +2541,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>44082</v>
@@ -1965,10 +2555,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>44083</v>
@@ -1979,10 +2569,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
         <v>44084</v>
@@ -1993,10 +2583,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>44085</v>
@@ -2007,10 +2597,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>44086</v>
@@ -2021,10 +2611,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>44087</v>
@@ -2035,10 +2625,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
         <v>44089</v>
@@ -2049,10 +2639,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
         <v>44083</v>
@@ -2063,10 +2653,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3">
         <v>44085</v>
@@ -2077,10 +2667,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>44084</v>
@@ -2091,10 +2681,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
         <v>44086</v>
@@ -2105,10 +2695,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
         <v>44086</v>
@@ -2119,10 +2709,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3">
         <v>44084</v>
@@ -2133,10 +2723,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
         <v>44082</v>
@@ -2151,7 +2741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -2173,21 +2763,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>44084</v>
@@ -2198,7 +2788,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>44085</v>
@@ -2212,7 +2802,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>44086</v>
@@ -2223,7 +2813,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>44083</v>
@@ -2234,7 +2824,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>44086</v>
@@ -2248,7 +2838,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>44088</v>
@@ -2259,7 +2849,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>44082</v>
@@ -2268,12 +2858,12 @@
         <v>44084</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>44083</v>
@@ -2284,7 +2874,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>44084</v>
@@ -2295,7 +2885,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>44085</v>
@@ -2306,7 +2896,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>44086</v>
@@ -2320,7 +2910,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>44087</v>
@@ -2331,7 +2921,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>44089</v>
@@ -2342,7 +2932,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
         <v>44083</v>
@@ -2353,7 +2943,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3">
         <v>44085</v>
@@ -2364,7 +2954,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3">
         <v>44084</v>
@@ -2375,7 +2965,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
         <v>44086</v>
@@ -2386,7 +2976,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3">
         <v>44086</v>
@@ -2397,7 +2987,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3">
         <v>44084</v>
@@ -2408,7 +2998,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3">
         <v>44082</v>
@@ -2423,12 +3013,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D21"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,246 +3030,246 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2709,581 +3299,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2">
-        <v>8938398373</v>
-      </c>
-      <c r="D2">
-        <v>175</v>
-      </c>
-      <c r="E2">
-        <v>5.5</v>
-      </c>
-      <c r="F2">
-        <v>1091</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3">
-        <v>5685893789</v>
-      </c>
-      <c r="D3">
-        <v>167</v>
-      </c>
-      <c r="E3">
-        <v>5.6</v>
-      </c>
-      <c r="F3">
-        <v>1091</v>
-      </c>
-      <c r="G3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4">
-        <v>5373638789</v>
-      </c>
-      <c r="D4">
-        <v>167</v>
-      </c>
-      <c r="E4">
-        <v>5.7</v>
-      </c>
-      <c r="F4">
-        <v>1092</v>
-      </c>
-      <c r="G4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5">
-        <v>2453683936</v>
-      </c>
-      <c r="D5">
-        <v>189</v>
-      </c>
-      <c r="E5">
-        <v>5.8</v>
-      </c>
-      <c r="F5">
-        <v>1093</v>
-      </c>
-      <c r="G5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6">
-        <v>5478363889</v>
-      </c>
-      <c r="D6">
-        <v>110</v>
-      </c>
-      <c r="E6">
-        <v>5.9</v>
-      </c>
-      <c r="F6">
-        <v>1094</v>
-      </c>
-      <c r="G6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7">
-        <v>5378227889</v>
-      </c>
-      <c r="D7">
-        <v>111</v>
-      </c>
-      <c r="E7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F7">
-        <v>1095</v>
-      </c>
-      <c r="G7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8">
-        <v>4362781811</v>
-      </c>
-      <c r="D8">
-        <v>134</v>
-      </c>
-      <c r="E8">
-        <v>5.4</v>
-      </c>
-      <c r="F8">
-        <v>1096</v>
-      </c>
-      <c r="G8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9">
-        <v>3252672819</v>
-      </c>
-      <c r="D9">
-        <v>142</v>
-      </c>
-      <c r="E9">
-        <v>5.5</v>
-      </c>
-      <c r="F9">
-        <v>1097</v>
-      </c>
-      <c r="G9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10">
-        <v>4362782829</v>
-      </c>
-      <c r="D10">
-        <v>152</v>
-      </c>
-      <c r="E10">
-        <v>5.2</v>
-      </c>
-      <c r="F10">
-        <v>1098</v>
-      </c>
-      <c r="G10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11">
-        <v>1324627856</v>
-      </c>
-      <c r="D11">
-        <v>162</v>
-      </c>
-      <c r="E11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F11">
-        <v>1099</v>
-      </c>
-      <c r="G11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12">
-        <v>1452672829</v>
-      </c>
-      <c r="D12">
-        <v>178</v>
-      </c>
-      <c r="E12">
-        <v>5.5</v>
-      </c>
-      <c r="F12">
-        <v>1100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13">
-        <v>2453782829</v>
-      </c>
-      <c r="D13">
-        <v>181</v>
-      </c>
-      <c r="E13">
-        <v>5.8</v>
-      </c>
-      <c r="F13">
-        <v>1081</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14">
-        <v>5464748843</v>
-      </c>
-      <c r="D14">
-        <v>192</v>
-      </c>
-      <c r="E14">
-        <v>5.2</v>
-      </c>
-      <c r="F14">
-        <v>1082</v>
-      </c>
-      <c r="G14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15">
-        <v>2627838934</v>
-      </c>
-      <c r="D15">
-        <v>136</v>
-      </c>
-      <c r="E15">
-        <v>5.9</v>
-      </c>
-      <c r="F15">
-        <v>1083</v>
-      </c>
-      <c r="G15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16">
-        <v>4263783993</v>
-      </c>
-      <c r="D16">
-        <v>178</v>
-      </c>
-      <c r="E16">
-        <v>5.3</v>
-      </c>
-      <c r="F16">
-        <v>1084</v>
-      </c>
-      <c r="G16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17">
-        <v>4262781999</v>
-      </c>
-      <c r="D17">
-        <v>156</v>
-      </c>
-      <c r="E17">
-        <v>5.8</v>
-      </c>
-      <c r="F17">
-        <v>1085</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18">
-        <v>1226367788</v>
-      </c>
-      <c r="D18">
-        <v>128</v>
-      </c>
-      <c r="E18">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F18">
-        <v>1086</v>
-      </c>
-      <c r="G18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19">
-        <v>4352678281</v>
-      </c>
-      <c r="D19">
-        <v>119</v>
-      </c>
-      <c r="E19">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="F19">
-        <v>1087</v>
-      </c>
-      <c r="G19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20">
-        <v>3563378381</v>
-      </c>
-      <c r="D20">
-        <v>110</v>
-      </c>
-      <c r="E20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F20">
-        <v>1089</v>
-      </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21">
-        <v>2452672782</v>
-      </c>
-      <c r="D21">
-        <v>111</v>
-      </c>
-      <c r="E21">
-        <v>5.7</v>
-      </c>
-      <c r="F21">
-        <v>1090</v>
-      </c>
-      <c r="G21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,19 +3317,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3316,10 +3337,10 @@
         <v>1091</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>44094</v>
@@ -3333,10 +3354,10 @@
         <v>1092</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>44095</v>
@@ -3350,10 +3371,10 @@
         <v>1093</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3">
         <v>44096</v>
@@ -3367,10 +3388,10 @@
         <v>1094</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>44094</v>
@@ -3384,10 +3405,10 @@
         <v>1095</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>44095</v>
@@ -3401,10 +3422,10 @@
         <v>1096</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
         <v>44096</v>
@@ -3418,10 +3439,10 @@
         <v>1097</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>44097</v>
@@ -3435,10 +3456,10 @@
         <v>1098</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3">
         <v>44094</v>
@@ -3452,10 +3473,10 @@
         <v>1099</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3">
         <v>44096</v>
@@ -3517,11 +3538,830 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="3">
+        <v>33523</v>
+      </c>
+      <c r="D2">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>136</v>
+      </c>
+      <c r="G2">
+        <v>134</v>
+      </c>
+      <c r="H2">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="3">
+        <v>34695</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>112</v>
+      </c>
+      <c r="G3">
+        <v>110</v>
+      </c>
+      <c r="H3">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="3">
+        <v>32809</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>125</v>
+      </c>
+      <c r="G4">
+        <v>128</v>
+      </c>
+      <c r="H4">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="3">
+        <v>34241</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>134</v>
+      </c>
+      <c r="G5">
+        <v>138</v>
+      </c>
+      <c r="H5">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3">
+        <v>35033</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>102</v>
+      </c>
+      <c r="G6">
+        <v>108</v>
+      </c>
+      <c r="H6">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3">
+        <v>31655</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>142</v>
+      </c>
+      <c r="G7">
+        <v>131</v>
+      </c>
+      <c r="H7">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="3">
+        <v>33604</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>123</v>
+      </c>
+      <c r="G8">
+        <v>129</v>
+      </c>
+      <c r="H8">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="3">
+        <v>33330</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>101</v>
+      </c>
+      <c r="G9">
+        <v>93</v>
+      </c>
+      <c r="H9">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="3">
+        <v>34853</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>131</v>
+      </c>
+      <c r="G10">
+        <v>121</v>
+      </c>
+      <c r="H10">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="3">
+        <v>28494</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>104</v>
+      </c>
+      <c r="G11">
+        <v>109</v>
+      </c>
+      <c r="H11">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="3">
+        <v>29622</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
+        <v>151</v>
+      </c>
+      <c r="G12">
+        <v>129</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="3">
+        <v>27886</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>141</v>
+      </c>
+      <c r="G13">
+        <v>138</v>
+      </c>
+      <c r="H13">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3">
+        <v>32362</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <v>98</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="3">
+        <v>33611</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>101</v>
+      </c>
+      <c r="G15">
+        <v>109</v>
+      </c>
+      <c r="H15">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="3">
+        <v>28377</v>
+      </c>
+      <c r="D16">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>91</v>
+      </c>
+      <c r="G16">
+        <v>88</v>
+      </c>
+      <c r="H16">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="3">
+        <v>31172</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>125</v>
+      </c>
+      <c r="G17">
+        <v>121</v>
+      </c>
+      <c r="H17">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="3">
+        <v>32848</v>
+      </c>
+      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18">
+        <v>99</v>
+      </c>
+      <c r="G18">
+        <v>109</v>
+      </c>
+      <c r="H18">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="3">
+        <v>29129</v>
+      </c>
+      <c r="D19">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>136</v>
+      </c>
+      <c r="G19">
+        <v>129</v>
+      </c>
+      <c r="H19">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="3">
+        <v>29993</v>
+      </c>
+      <c r="D20">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>92</v>
+      </c>
+      <c r="G20">
+        <v>99</v>
+      </c>
+      <c r="H20">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="3">
+        <v>33244</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21">
+        <v>129</v>
+      </c>
+      <c r="G21">
+        <v>135</v>
+      </c>
+      <c r="H21">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="3">
+        <v>33039</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22">
+        <v>137</v>
+      </c>
+      <c r="G22">
+        <v>142</v>
+      </c>
+      <c r="H22">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3535,38 +4375,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>44095</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>44094</v>
@@ -3577,10 +4417,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>44095</v>
@@ -3591,10 +4431,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>44095</v>
@@ -3605,10 +4445,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>44096</v>
@@ -3619,10 +4459,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>44096</v>
@@ -3691,4 +4531,865 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>